--- a/TFG/lista_req.xlsx
+++ b/TFG/lista_req.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04705B4E-30D2-4DDE-8832-D7D2292FAB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7306E-A5EF-4A87-9D16-79F00DE1B091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{C5754906-964D-4693-BC5C-F8205517C581}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
   <si>
     <t>Tipo</t>
   </si>
@@ -454,12 +454,16 @@
   </si>
   <si>
     <t>Puntos historia por día</t>
+  </si>
+  <si>
+    <t>Sprint Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -863,23 +867,23 @@
   <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20" style="3" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="67.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,7 +937,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -951,11 +955,11 @@
       <c r="J2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
+      <c r="K2" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,7 +975,7 @@
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -989,11 +993,11 @@
       <c r="J3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
+      <c r="K3" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,7 +1013,7 @@
       <c r="D4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1027,11 +1031,11 @@
       <c r="J4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
+      <c r="K4" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,7 +1051,7 @@
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1065,11 +1069,11 @@
       <c r="J5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
+      <c r="K5" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1089,7 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1103,11 +1107,11 @@
       <c r="J6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
+      <c r="K6" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1127,7 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>90</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1141,11 +1145,11 @@
       <c r="J7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
+      <c r="K7" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1165,7 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1179,11 +1183,11 @@
       <c r="J8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
+      <c r="K8" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,7 +1203,7 @@
       <c r="D9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1217,11 +1221,11 @@
       <c r="J9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
+      <c r="K9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1241,7 @@
       <c r="D10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1255,11 +1259,11 @@
       <c r="J10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
+      <c r="K10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1279,7 @@
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1293,11 +1297,11 @@
       <c r="J11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
+      <c r="K11" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1317,7 @@
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1331,11 +1335,11 @@
       <c r="J12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
+      <c r="K12" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1355,7 @@
       <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1369,11 +1373,11 @@
       <c r="J13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
+      <c r="K13" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,7 +1393,7 @@
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1407,11 +1411,11 @@
       <c r="J14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
+      <c r="K14" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1431,7 @@
       <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1445,11 +1449,11 @@
       <c r="J15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
+      <c r="K15" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,7 +1469,7 @@
       <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>70</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1483,11 +1487,11 @@
       <c r="J16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
+      <c r="K16" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1507,7 @@
       <c r="D17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1521,11 +1525,11 @@
       <c r="J17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
+      <c r="K17" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1545,7 @@
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1559,11 +1563,11 @@
       <c r="J18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
+      <c r="K18" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,7 +1583,7 @@
       <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1597,11 +1601,11 @@
       <c r="J19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
+      <c r="K19" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1621,7 @@
       <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1635,11 +1639,11 @@
       <c r="J20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
+      <c r="K20" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,7 +1659,7 @@
       <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>80</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1673,11 +1677,11 @@
       <c r="J21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
+      <c r="K21" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,7 +1697,7 @@
       <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1711,11 +1715,11 @@
       <c r="J22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
+      <c r="K22" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,7 +1735,7 @@
       <c r="D23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1749,11 +1753,11 @@
       <c r="J23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
+      <c r="K23" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1773,7 @@
       <c r="D24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1787,11 +1791,11 @@
       <c r="J24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
+      <c r="K24" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,7 +1811,7 @@
       <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1825,11 +1829,11 @@
       <c r="J25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
+      <c r="K25" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,7 +1849,7 @@
       <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1863,11 +1867,11 @@
       <c r="J26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
+      <c r="K26" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,7 +1887,7 @@
       <c r="D27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1901,11 +1905,11 @@
       <c r="J27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
+      <c r="K27" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2029,15 +2033,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F151BCD-4BC2-42AB-92F7-69E2C90B5C26}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2057,7 @@
         <v>140</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,6 +2066,14 @@
       </c>
       <c r="B3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/TFG/lista_req.xlsx
+++ b/TFG/lista_req.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7306E-A5EF-4A87-9D16-79F00DE1B091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A174C88D-51E0-4365-B883-7325CDD77391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{C5754906-964D-4693-BC5C-F8205517C581}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C5754906-964D-4693-BC5C-F8205517C581}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -282,188 +282,187 @@
     <t>Si el receptor no está listo la transmisión será ignorada.</t>
   </si>
   <si>
+    <t>Seguridad del Usuario</t>
+  </si>
+  <si>
+    <t>Intentar acceder al sistema cuando no esté en posición Operar.</t>
+  </si>
+  <si>
+    <t>El usuario podría sufrir daños de no cumplirs eel requisito.</t>
+  </si>
+  <si>
+    <t>La máquina expendedora de alimentos no debe dispensar ningún alimento si la temperatura supera los 41ºF.</t>
+  </si>
+  <si>
+    <t>Intenar obtener un alimento cuando la temperatura es mayor de 41ºF.</t>
+  </si>
+  <si>
+    <t>El alimento podría estar en mal estado ya que no ha estado en buenas condiciones de conservación.</t>
+  </si>
+  <si>
+    <t>Usabilidad</t>
+  </si>
+  <si>
+    <t>Usabilidad del sistema</t>
+  </si>
+  <si>
+    <t>Buscar un sujeto de prueba y realzar un test.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser utilizado por miembros adultos del público sin práctica en softwars parecidos.</t>
+  </si>
+  <si>
+    <t>La aplicación deber poder ser usada fácilmente por toda la población.</t>
+  </si>
+  <si>
+    <t>Las personas sin conocimiento del inglés podrán usar el producto.</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Reglas de Correlación</t>
+  </si>
+  <si>
+    <t>REQ01</t>
+  </si>
+  <si>
+    <t>REQ02</t>
+  </si>
+  <si>
+    <t>REQ03</t>
+  </si>
+  <si>
+    <t>REQ04</t>
+  </si>
+  <si>
+    <t>REQ05</t>
+  </si>
+  <si>
+    <t>REQ06</t>
+  </si>
+  <si>
+    <t>REQ07</t>
+  </si>
+  <si>
+    <t>REQ08</t>
+  </si>
+  <si>
+    <t>REQ09</t>
+  </si>
+  <si>
+    <t>REQ10</t>
+  </si>
+  <si>
+    <t>REQ11</t>
+  </si>
+  <si>
+    <t>REQ12</t>
+  </si>
+  <si>
+    <t>REQ13</t>
+  </si>
+  <si>
+    <t>REQ14</t>
+  </si>
+  <si>
+    <t>REQ15</t>
+  </si>
+  <si>
+    <t>REQ16</t>
+  </si>
+  <si>
+    <t>REQ17</t>
+  </si>
+  <si>
+    <t>REQ18</t>
+  </si>
+  <si>
+    <t>REQ19</t>
+  </si>
+  <si>
+    <t>REQ20</t>
+  </si>
+  <si>
+    <t>REQ21</t>
+  </si>
+  <si>
+    <t>REQ22</t>
+  </si>
+  <si>
+    <t>REQ23</t>
+  </si>
+  <si>
+    <t>REQ24</t>
+  </si>
+  <si>
+    <t>REQ25</t>
+  </si>
+  <si>
+    <t>REQ26</t>
+  </si>
+  <si>
+    <t>Dependencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permitir usar una lupa de pantalla para ampliar una parte seleccionada de la pantalla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permitir usar un lector de pantalla para leer en voz alta la información que se muestra.</t>
+  </si>
+  <si>
+    <t>REQ11+;</t>
+  </si>
+  <si>
+    <t>REQ06+;</t>
+  </si>
+  <si>
+    <t>REQ01;</t>
+  </si>
+  <si>
+    <t>REQ17+; REQ18+;REQ19+;</t>
+  </si>
+  <si>
+    <t>REQ25+;</t>
+  </si>
+  <si>
+    <t>REQ24;</t>
+  </si>
+  <si>
+    <t>nº Auditado</t>
+  </si>
+  <si>
+    <t>Establecer el tiempo de "duración de caducidad de contraseña" a 0 y comprobar que el usuario debe cambiar de contraseña.</t>
+  </si>
+  <si>
+    <t>Puntos Historia</t>
+  </si>
+  <si>
+    <t>Duracion del Sprint (días)</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Ciclo</t>
+  </si>
+  <si>
+    <t>Horas de trabajo por día</t>
+  </si>
+  <si>
+    <t>Puntos historia por día</t>
+  </si>
+  <si>
+    <t>Sprint Actual</t>
+  </si>
+  <si>
     <t>El Sistema de Radiación no permitirá la operación a menos que la Guardia del Operador esté en la posición Operar.</t>
-  </si>
-  <si>
-    <t>Seguridad del Usuario</t>
-  </si>
-  <si>
-    <t>Intentar acceder al sistema cuando no esté en posición Operar.</t>
-  </si>
-  <si>
-    <t>El usuario podría sufrir daños de no cumplirs eel requisito.</t>
-  </si>
-  <si>
-    <t>La máquina expendedora de alimentos no debe dispensar ningún alimento si la temperatura supera los 41ºF.</t>
-  </si>
-  <si>
-    <t>Intenar obtener un alimento cuando la temperatura es mayor de 41ºF.</t>
-  </si>
-  <si>
-    <t>El alimento podría estar en mal estado ya que no ha estado en buenas condiciones de conservación.</t>
-  </si>
-  <si>
-    <t>Usabilidad</t>
-  </si>
-  <si>
-    <t>Usabilidad del sistema</t>
-  </si>
-  <si>
-    <t>Buscar un sujeto de prueba y realzar un test.</t>
-  </si>
-  <si>
-    <t>El sistema debe ser utilizado por miembros adultos del público sin práctica en softwars parecidos.</t>
-  </si>
-  <si>
-    <t>La aplicación deber poder ser usada fácilmente por toda la población.</t>
-  </si>
-  <si>
-    <t>Las personas sin conocimiento del inglés podrán usar el producto.</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Reglas de Correlación</t>
-  </si>
-  <si>
-    <t>REQ01</t>
-  </si>
-  <si>
-    <t>REQ02</t>
-  </si>
-  <si>
-    <t>REQ03</t>
-  </si>
-  <si>
-    <t>REQ04</t>
-  </si>
-  <si>
-    <t>REQ05</t>
-  </si>
-  <si>
-    <t>REQ06</t>
-  </si>
-  <si>
-    <t>REQ07</t>
-  </si>
-  <si>
-    <t>REQ08</t>
-  </si>
-  <si>
-    <t>REQ09</t>
-  </si>
-  <si>
-    <t>REQ10</t>
-  </si>
-  <si>
-    <t>REQ11</t>
-  </si>
-  <si>
-    <t>REQ12</t>
-  </si>
-  <si>
-    <t>REQ13</t>
-  </si>
-  <si>
-    <t>REQ14</t>
-  </si>
-  <si>
-    <t>REQ15</t>
-  </si>
-  <si>
-    <t>REQ16</t>
-  </si>
-  <si>
-    <t>REQ17</t>
-  </si>
-  <si>
-    <t>REQ18</t>
-  </si>
-  <si>
-    <t>REQ19</t>
-  </si>
-  <si>
-    <t>REQ20</t>
-  </si>
-  <si>
-    <t>REQ21</t>
-  </si>
-  <si>
-    <t>REQ22</t>
-  </si>
-  <si>
-    <t>REQ23</t>
-  </si>
-  <si>
-    <t>REQ24</t>
-  </si>
-  <si>
-    <t>REQ25</t>
-  </si>
-  <si>
-    <t>REQ26</t>
-  </si>
-  <si>
-    <t>Dependencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Permitir usar una lupa de pantalla para ampliar una parte seleccionada de la pantalla. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Permitir usar un lector de pantalla para leer en voz alta la información que se muestra.</t>
-  </si>
-  <si>
-    <t>REQ11+;</t>
-  </si>
-  <si>
-    <t>REQ06+;</t>
-  </si>
-  <si>
-    <t>REQ01;</t>
-  </si>
-  <si>
-    <t>REQ17+; REQ18+;REQ19+;</t>
-  </si>
-  <si>
-    <t>REQ25+;</t>
-  </si>
-  <si>
-    <t>REQ24;</t>
-  </si>
-  <si>
-    <t>nº Auditado</t>
-  </si>
-  <si>
-    <t>Establecer el tiempo de "duración de caducidad de contraseña" a 0 y comprobar que el usuario debe cambiar de contraseña.</t>
-  </si>
-  <si>
-    <t>Puntos Historia</t>
-  </si>
-  <si>
-    <t>Duracion del Sprint (días)</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>Ciclo</t>
-  </si>
-  <si>
-    <t>Horas de trabajo por día</t>
-  </si>
-  <si>
-    <t>Puntos historia por día</t>
-  </si>
-  <si>
-    <t>Sprint Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -866,29 +865,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43156EF7-D249-43A0-885E-EFE8A9CEC8B1}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="67.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="23.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="9" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="67.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.28515625" style="9" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -909,24 +908,24 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -941,7 +940,7 @@
         <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -950,21 +949,21 @@
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -988,97 +987,97 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>0.0</v>
+        <v>128</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>0.0</v>
+        <v>131</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1102,21 +1101,21 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1140,21 +1139,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1178,21 +1177,21 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1201,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2">
         <v>40</v>
@@ -1216,21 +1215,21 @@
         <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1239,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2">
         <v>40</v>
@@ -1254,21 +1253,21 @@
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1292,21 +1291,21 @@
         <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
@@ -1330,21 +1329,21 @@
         <v>2</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -1368,21 +1367,21 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
@@ -1406,21 +1405,21 @@
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
@@ -1444,21 +1443,21 @@
         <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -1482,21 +1481,21 @@
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>48</v>
@@ -1520,21 +1519,21 @@
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
@@ -1558,21 +1557,21 @@
         <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>0.0</v>
+        <v>131</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>48</v>
@@ -1596,21 +1595,21 @@
         <v>5</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>0.0</v>
+        <v>131</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>48</v>
@@ -1634,21 +1633,21 @@
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>62</v>
@@ -1672,21 +1671,21 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>62</v>
@@ -1710,21 +1709,21 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>0.0</v>
+        <v>131</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>62</v>
@@ -1748,21 +1747,21 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>74</v>
@@ -1786,21 +1785,21 @@
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>74</v>
@@ -1824,92 +1823,92 @@
         <v>3</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2">
         <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2">
         <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="9" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2035,18 +2034,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F151BCD-4BC2-42AB-92F7-69E2C90B5C26}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -2054,7 +2053,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2062,7 +2061,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2070,10 +2069,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TFG/lista_req.xlsx
+++ b/TFG/lista_req.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\TFG\TFG\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A174C88D-51E0-4365-B883-7325CDD77391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175AD82-77DE-41AC-80B9-CD95CD5B4497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C5754906-964D-4693-BC5C-F8205517C581}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -463,6 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,24 +866,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43156EF7-D249-43A0-885E-EFE8A9CEC8B1}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="67.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.28515625" style="9" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="48.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,11 +955,11 @@
       <c r="J2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
+      <c r="K2" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,11 +993,11 @@
       <c r="J3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
+      <c r="K3" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,11 +1031,11 @@
       <c r="J4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
+      <c r="K4" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,11 +1069,11 @@
       <c r="J5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
+      <c r="K5" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,11 +1107,11 @@
       <c r="J6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
+      <c r="K6" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,11 +1145,11 @@
       <c r="J7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
+      <c r="K7" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,11 +1183,11 @@
       <c r="J8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
+      <c r="K8" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,11 +1221,11 @@
       <c r="J9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
+      <c r="K9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,11 +1259,11 @@
       <c r="J10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
+      <c r="K10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,11 +1297,11 @@
       <c r="J11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
+      <c r="K11" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,11 +1335,11 @@
       <c r="J12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
+      <c r="K12" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,11 +1373,11 @@
       <c r="J13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
+      <c r="K13" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,11 +1411,11 @@
       <c r="J14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
+      <c r="K14" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1448,11 +1449,11 @@
       <c r="J15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
+      <c r="K15" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,11 +1487,11 @@
       <c r="J16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
+      <c r="K16" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,11 +1525,11 @@
       <c r="J17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
+      <c r="K17" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1562,11 +1563,11 @@
       <c r="J18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
+      <c r="K18" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,11 +1601,11 @@
       <c r="J19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
+      <c r="K19" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,11 +1639,11 @@
       <c r="J20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
+      <c r="K20" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,11 +1677,11 @@
       <c r="J21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
+      <c r="K21" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1714,11 +1715,11 @@
       <c r="J22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
+      <c r="K22" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,11 +1753,11 @@
       <c r="J23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
+      <c r="K23" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,11 +1791,11 @@
       <c r="J24" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
+      <c r="K24" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,11 +1829,11 @@
       <c r="J25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
+      <c r="K25" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,11 +1867,11 @@
       <c r="J26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
+      <c r="K26" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,11 +1905,11 @@
       <c r="J27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
+      <c r="K27" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2041,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,8 +2072,8 @@
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/TFG/lista_req.xlsx
+++ b/TFG/lista_req.xlsx
@@ -956,7 +956,7 @@
         <v>136</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" s="9" t="n">
         <v>0.0</v>
@@ -1032,7 +1032,7 @@
         <v>136</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>0.0</v>
@@ -1108,7 +1108,7 @@
         <v>136</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>0.0</v>
@@ -1412,7 +1412,7 @@
         <v>136</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="9" t="n">
         <v>0.0</v>
@@ -1830,7 +1830,7 @@
         <v>136</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>0.0</v>
@@ -2073,7 +2073,7 @@
         <v>140</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
